--- a/public/projects.xlsx
+++ b/public/projects.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,123 +431,137 @@
         <v>city</v>
       </c>
       <c r="J1" t="str">
+        <v>comment</v>
+      </c>
+      <c r="K1" t="str">
         <v>country</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>created</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>created_by</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
+        <v>docs</v>
+      </c>
+      <c r="O1" t="str">
         <v>email</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>end_date</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>facebook</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>id</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
+        <v>impactPerUnit</v>
+      </c>
+      <c r="T1" t="str">
         <v>instagram</v>
       </c>
-      <c r="R1" t="str">
+      <c r="U1" t="str">
         <v>linkedin</v>
       </c>
-      <c r="S1" t="str">
+      <c r="V1" t="str">
         <v>location</v>
       </c>
-      <c r="T1" t="str">
+      <c r="W1" t="str">
         <v>main_interventions</v>
       </c>
-      <c r="U1" t="str">
+      <c r="X1" t="str">
         <v>marker</v>
       </c>
-      <c r="V1" t="str">
+      <c r="Y1" t="str">
         <v>name</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Z1" t="str">
         <v>number_of_target_unit</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AA1" t="str">
         <v>omr_unit</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AB1" t="str">
         <v>operated_by</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AC1" t="str">
         <v>phone</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AD1" t="str">
         <v>preview_image</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AE1" t="str">
         <v>profilePdf</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AF1" t="str">
         <v>project_images</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AG1" t="str">
         <v>project_prefix</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AH1" t="str">
         <v>project_videos</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AI1" t="str">
         <v>report</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AJ1" t="str">
         <v>reports</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AK1" t="str">
         <v>sdgs</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AL1" t="str">
         <v>sort_title</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AM1" t="str">
         <v>start_date</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AN1" t="str">
         <v>status</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AO1" t="str">
         <v>telegram</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AP1" t="str">
         <v>top_project</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AQ1" t="str">
         <v>type</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AR1" t="str">
         <v>unit_measurement</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AS1" t="str">
         <v>unit_types</v>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AT1" t="str">
         <v>updated</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="AU1" t="str">
         <v>website</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="AV1" t="str">
         <v>workareas</v>
       </c>
-      <c r="AT1" t="str">
+      <c r="AW1" t="str">
         <v>x</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>&lt;p&gt;&lt;br&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucatán Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We’ve planted over&lt;/p&gt;&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Project</v>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;p&gt;&lt;br&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, hcelp patrol two reserves and are working towards establishing a jaguar corridor.Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor. Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;_x000d_
+&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over&lt;/p&gt;_x000d_
+&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;_x000d_
+&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, hdelp patrol two reserves and are working towards establishing a jaguar corridor.Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor. Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
       </c>
       <c r="C2" t="str">
         <v>ww.c.com</v>
@@ -555,660 +569,721 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <v>sourav bapari</v>
-      </c>
       <c r="F2" t="str">
         <v>&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucatán Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We’ve planted over&lt;/p&gt;&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
       </c>
       <c r="G2" t="str">
-        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_i4KVyDUHDr.jpg</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>videoplayback_2_3IkzAdIwg1.mp4</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v>Barkā’</v>
       </c>
       <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
         <v>Oman</v>
       </c>
-      <c r="K2" t="str">
-        <v>2024-11-07 06:24:47.837Z</v>
-      </c>
       <c r="L2" t="str">
+        <v>2024-12-07 11:45:46.813Z</v>
+      </c>
+      <c r="M2" t="str">
         <v>e1z3dz3fqgzqw3v</v>
       </c>
-      <c r="M2" t="str">
-        <v>ww.c.com</v>
-      </c>
       <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="P2" t="str">
         <v>2024-11-28</v>
       </c>
-      <c r="O2" t="str">
-        <v>ww.c.com</v>
-      </c>
-      <c r="P2" t="str">
-        <v>m2f61tdxm2x1kyj</v>
-      </c>
       <c r="Q2" t="str">
-        <v/>
+        <v>ww.c.com</v>
       </c>
       <c r="R2" t="str">
-        <v>ww.c.com</v>
-      </c>
-      <c r="S2" t="str">
+        <v>aqih4s5u4nfpzvk</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="V2" t="str">
         <v>54.14762185751965,17.049399328494104</v>
       </c>
-      <c r="T2" t="str">
+      <c r="W2" t="str">
         <v xml:space="preserve">Restoration ,Soil Treatment </v>
       </c>
-      <c r="U2" t="str">
+      <c r="X2" t="str">
         <v>{"colorIndex":6,"markerTypeIndex":0,"position":{"lat":17.049399328494104,"lng":54.14762185751965},"values":{"color":"#D033FF","image":"/assets/tree.svg"}}</v>
       </c>
-      <c r="V2" t="str">
+      <c r="Y2" t="str">
         <v>Planting Trees _2</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>2000</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>3</v>
       </c>
-      <c r="Y2" t="str">
-        <v>Adarsh Arya</v>
-      </c>
-      <c r="Z2" t="str">
-        <v>ww.c.com</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_hkhwaitGQc.jpg</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>ww.c.com</v>
-      </c>
       <c r="AC2" t="str">
-        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_3JEbsfXbBx.jpg,recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_vh2Xxm8p1y.jpg</v>
+        <v>ww.c.com</v>
       </c>
       <c r="AD2" t="str">
+        <v>untitled_1280_x_820_px_HMkNU0GZOj.png</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AF2" t="str">
+        <v/>
+      </c>
+      <c r="AG2" t="str">
         <v>tree</v>
       </c>
-      <c r="AE2" t="str">
-        <v>videoplayback_3_LuYydL0iU0.mp4,videoplayback_2_mY9T8cQ2PS.mp4,videoplayback_1_tW5aWj7WlI.mp4</v>
-      </c>
-      <c r="AF2" t="str">
-        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_n6scxBLAB6.jpg</v>
+      <c r="AH2" t="str">
+        <v/>
       </c>
       <c r="AI2" t="str">
-        <v xml:space="preserve">ver 100,000 children and youth in 76 countries have become Climate Justice Ambassadors at our academies, where we empower each other about the climate crisis. As Ambassadors </v>
-      </c>
-      <c r="AJ2" t="str">
+        <v/>
+      </c>
+      <c r="AL2" t="str">
+        <v>ver 100,000 children and youth in 76 countries have become Climatef Justice Ambassadors at our academies, where we empower each other about the climate crisis. As Ambassadors xfd</v>
+      </c>
+      <c r="AM2" t="str">
         <v>2024-11-10</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="AN2" t="str">
         <v>active</v>
       </c>
-      <c r="AL2" t="str">
-        <v>ww.c.com</v>
-      </c>
-      <c r="AM2" t="b">
+      <c r="AO2" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AP2" t="b">
         <v>0</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="AQ2" t="str">
         <v>2t5cayzas22mj1r</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="AR2" t="str">
         <v>Tree</v>
       </c>
-      <c r="AP2" t="str">
-        <v>Tree ,Mango,Tree Unit</v>
-      </c>
-      <c r="AQ2" t="str">
-        <v>2024-11-16 13:25:44.847Z</v>
-      </c>
-      <c r="AR2" t="str">
-        <v>ww.c.com</v>
-      </c>
-      <c r="AS2" t="str">
+      <c r="AT2" t="str">
+        <v>2024-12-07 11:47:43.381Z</v>
+      </c>
+      <c r="AU2" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AV2" t="str">
         <v>{"areaInfo":[{"area":57442.86,"areaId":"pezumjll0oznaro","areaName":"Lans 1","areaType":"Shopping Mall","color":"#3283a8","id":"c2290088fa23ada7c2112e1322a3f8e0"},{"area":216010.71,"areaId":"l7ns1a1ckux6e2i","areaName":"lans 2","areaType":"University","color":"#7132a8","id":"9a27865ac398668fe255959bb63f4616"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[54.134486645838365,17.051960822065695],[54.140729600325244,17.054196433919742],[54.14085832103618,17.05411439359044],[54.14083686758451,17.05378623191396],[54.14077250722963,17.053170927217067],[54.14066523997033,17.052740212722696],[54.140665240120825,17.052658171677777],[54.134486645838365,17.051960822065695]]],"type":"Polygon"},"id":"c2290088fa23ada7c2112e1322a3f8e0","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[54.14150343300179,17.051626294803384],[54.1438668040353,17.050996867329772],[54.14520042054738,17.050674083186962],[54.14638210606324,17.050448133955825],[54.14753002913611,17.0504319947147],[54.14828968411169,17.050415855471343],[54.148745477096725,17.050109209595945],[54.14884676442574,17.049689588107896],[54.14889740809113,17.04814020829663],[54.14884676442574,17.04712342081227],[54.14432259702028,17.04786583761515],[54.144339478240994,17.049786423919414],[54.14086194657756,17.049302244359836],[54.14087882779998,17.049366801707265],[54.141857957055066,17.050335826576827],[54.14150343300179,17.051626294803384]]],"type":"Polygon"},"id":"9a27865ac398668fe255959bb63f4616","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="AW2" t="str">
         <v>ww.c.com</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive im&amp;nbsp; Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;&lt;strong&gt;&lt;u&gt;Climateers has developed our  opp:&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;1. Climateers has developed our platform with its directories&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;2. collaborations spaces and our Climate Action Plan system &lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;3. to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; font-size: 22px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&amp;nbsp;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;</v>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;p&gt;&lt;br&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, hcelp patrol two reserves and are working towards establishing a jaguar corridor.Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor. Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;_x000d_
+&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over&lt;/p&gt;_x000d_
+&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;_x000d_
+&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, hdelp patrol two reserves and are working towards establishing a jaguar corridor.Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor. Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
       </c>
       <c r="B3" t="str">
         <v>Project</v>
       </c>
       <c r="C3" t="str">
-        <v>Oman-Muscat-sib</v>
+        <v>ww.c.com</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>sourav bapari</v>
+        <v>Rahul Sen</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive im&amp;nbsp; Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;&lt;strong&gt;&lt;u&gt;Climateers has developed our  opp:&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;1. Climateers has developed our platform with its directories&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;2. collaborations spaces and our Climate Action Plan system &lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;3. to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; font-size: 22px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&amp;nbsp;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;</v>
+        <v>&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucatán Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We’ve planted over&lt;/p&gt;&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
       </c>
       <c r="G3" t="str">
-        <v>recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_95RRBy1jhr.jpg,ddda_S7FZuakn0Q.PNG</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>videoplayback_0OxNPTpGKj.mp4</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>Nizwa</v>
+        <v>Barkā’</v>
       </c>
       <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
         <v>Oman</v>
       </c>
-      <c r="K3" t="str">
-        <v>2024-11-02 05:09:16.078Z</v>
-      </c>
       <c r="L3" t="str">
-        <v>ptk9o3bnmqx67t8</v>
+        <v>2024-12-07 11:45:38.872Z</v>
       </c>
       <c r="M3" t="str">
-        <v>maz@gmail.com</v>
+        <v>e1z3dz3fqgzqw3v</v>
       </c>
       <c r="N3" t="str">
-        <v>2024-11-14</v>
+        <v>rh1sucyvxw1zk2o</v>
       </c>
       <c r="O3" t="str">
-        <v>www.m.com</v>
+        <v>ww.c.com</v>
       </c>
       <c r="P3" t="str">
-        <v>e32x85bkiglg69u</v>
+        <v>2024-11-28</v>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>ww.c.com</v>
       </c>
       <c r="R3" t="str">
-        <v>www.m.com</v>
-      </c>
-      <c r="S3" t="str">
-        <v>57.63373249388158,22.98634704920714</v>
+        <v>5v4jkql7u1fm21m</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
       </c>
       <c r="T3" t="str">
-        <v>Recycling ,Collection</v>
+        <v/>
       </c>
       <c r="U3" t="str">
-        <v>{"colorIndex":0,"markerTypeIndex":0,"position":{"lat":22.98634704920714,"lng":57.63373249388158},"values":{"color":"#FF5733","image":"/assets/tree.svg"}}</v>
+        <v>ww.c.com</v>
       </c>
       <c r="V3" t="str">
-        <v xml:space="preserve">STOP </v>
-      </c>
-      <c r="W3">
-        <v>39000</v>
-      </c>
-      <c r="X3">
-        <v>43</v>
+        <v>54.14762185751965,17.049399328494104</v>
+      </c>
+      <c r="W3" t="str">
+        <v xml:space="preserve">Restoration ,Soil Treatment </v>
+      </c>
+      <c r="X3" t="str">
+        <v>{"colorIndex":6,"markerTypeIndex":0,"position":{"lat":17.049399328494104,"lng":54.14762185751965},"values":{"color":"#D033FF","image":"/assets/tree.svg"}}</v>
       </c>
       <c r="Y3" t="str">
-        <v>sourav bapari</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>+968 90945921</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_ul3NvLOkII.jpg</v>
+        <v>Planting Trees _2</v>
+      </c>
+      <c r="Z3">
+        <v>2000</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
       </c>
       <c r="AB3" t="str">
-        <v/>
+        <v>Adarsh Arya</v>
       </c>
       <c r="AC3" t="str">
-        <v>65134730937_12_ea08_e2_18_cb_486_a_ae35_881_ba6_e89802_gFNM5Glb3H.jpeg,beautiful_tree_middle_field_covered_with_grass_with_tree_line_background_i669IPue2h.jpg</v>
+        <v>ww.c.com</v>
       </c>
       <c r="AD3" t="str">
-        <v>others</v>
+        <v>screenshot_from_2024_12_04_15_33_14_N7OlLF9rVm.png</v>
       </c>
       <c r="AE3" t="str">
-        <v>videoplayback_3_t18rqmiRDZ.mp4,nature_video_30_seconds_whats_app_status_video_nature_background_videos_EKzLw4lOgW.mp4</v>
+        <v>ww.c.com</v>
       </c>
       <c r="AF3" t="str">
-        <v>recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_wweTJ128Rg.jpg</v>
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v>tree</v>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
       </c>
       <c r="AI3" t="str">
-        <v xml:space="preserve">This Project is Certified and Created by Oman Government as </v>
-      </c>
-      <c r="AJ3" t="str">
-        <v>2024-10-26</v>
-      </c>
-      <c r="AK3" t="str">
+        <v/>
+      </c>
+      <c r="AL3" t="str">
+        <v>ver 100,000 children and youth in 76 countries have become Climatef Justice Ambassadors at our academies, where we empower each other about the climate crisis. As Ambassadors xfd</v>
+      </c>
+      <c r="AM3" t="str">
+        <v>2024-11-10</v>
+      </c>
+      <c r="AN3" t="str">
         <v>active</v>
       </c>
-      <c r="AL3" t="str">
-        <v>www.m.com</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="str">
-        <v>cai41ibv2bt7buw</v>
-      </c>
       <c r="AO3" t="str">
-        <v>KG</v>
-      </c>
-      <c r="AP3" t="str">
-        <v>PET</v>
+        <v>ww.c.com</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
       </c>
       <c r="AQ3" t="str">
-        <v>2024-11-16 13:26:38.787Z</v>
+        <v>2t5cayzas22mj1r</v>
       </c>
       <c r="AR3" t="str">
-        <v>www.m.com</v>
+        <v>Tree</v>
       </c>
       <c r="AS3" t="str">
-        <v>{"areaInfo":[{"area":149463.73,"areaId":"l7ns1a1ckux6e2i","areaName":"STOP Area 1","areaType":"University","color":"#7132a8","id":"1dc2d4dee685fc1da43313d44206b910"},{"area":138354.36,"areaId":"qblcoi1ttxzcrth","areaName":"STOP Area 2","areaType":"Parking","color":"#a83266","id":"03d516a9822b28e389b94826db44551d"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[57.627543548017314,22.99610582982376],[57.629544849572454,22.997224340760383],[57.63314242737064,22.992947631276266],[57.63126025090705,22.99156589618309],[57.627543548017314,22.99610582982376]]],"type":"Polygon"},"id":"1dc2d4dee685fc1da43313d44206b910","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[57.633855515440644,22.990340202325513],[57.62939319745681,22.988760239522193],[57.636580103825935,22.985857009684096],[57.633855515440644,22.990340202325513]]],"type":"Polygon"},"id":"03d516a9822b28e389b94826db44551d","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+        <v>Tree ,Mango,Tree Unit</v>
       </c>
       <c r="AT3" t="str">
-        <v>www.m.com</v>
+        <v>2024-12-07 11:46:23.921Z</v>
+      </c>
+      <c r="AU3" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AV3" t="str">
+        <v>{"areaInfo":[{"area":57442.86,"areaId":"pezumjll0oznaro","areaName":"Lans 1","areaType":"Shopping Mall","color":"#3283a8","id":"c2290088fa23ada7c2112e1322a3f8e0"},{"area":216010.71,"areaId":"l7ns1a1ckux6e2i","areaName":"lans 2","areaType":"University","color":"#7132a8","id":"9a27865ac398668fe255959bb63f4616"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[54.134486645838365,17.051960822065695],[54.140729600325244,17.054196433919742],[54.14085832103618,17.05411439359044],[54.14083686758451,17.05378623191396],[54.14077250722963,17.053170927217067],[54.14066523997033,17.052740212722696],[54.140665240120825,17.052658171677777],[54.134486645838365,17.051960822065695]]],"type":"Polygon"},"id":"c2290088fa23ada7c2112e1322a3f8e0","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[54.14150343300179,17.051626294803384],[54.1438668040353,17.050996867329772],[54.14520042054738,17.050674083186962],[54.14638210606324,17.050448133955825],[54.14753002913611,17.0504319947147],[54.14828968411169,17.050415855471343],[54.148745477096725,17.050109209595945],[54.14884676442574,17.049689588107896],[54.14889740809113,17.04814020829663],[54.14884676442574,17.04712342081227],[54.14432259702028,17.04786583761515],[54.144339478240994,17.049786423919414],[54.14086194657756,17.049302244359836],[54.14087882779998,17.049366801707265],[54.141857957055066,17.050335826576827],[54.14150343300179,17.051626294803384]]],"type":"Polygon"},"id":"9a27865ac398668fe255959bb63f4616","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW3" t="str">
+        <v>ww.c.com</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>&lt;p&gt;xccvxz&lt;/p&gt;</v>
+        <v>&lt;p style="box-sizing: border-box; margin: 0px 0px 1.5em; color: rgb(47, 51, 54); font-family: &amp;quot;Open Sans&amp;quot;, sans-serif; font-size: 20px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-align: justify; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; background-color: rgb(255, 255, 255); text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;&lt;strong style="box-sizing: border-box; font-weight: 700;"&gt;Nitrogen-Fixing Species&lt;/strong&gt;&lt;/p&gt;&lt;p style="box-sizing: border-box; margin: 0px 0px 1.5em; color: rgb(47, 51, 54); font-family: &amp;quot;Open Sans&amp;quot;, sans-serif; font-size: 20px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-align: justify; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; background-color: rgb(255, 255, 255); text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;&lt;span style="box-sizing: border-box; font-weight: 400;"&gt;Nitrogen is one of the key nutrients plants need to grow. To do so, they extract inorganic nitrogen from the forest soil. A lot of tropical dry forests are Nitrogen limited. That means that the low levels of nitrogen is the primary reason plants in that ecosystem are not growing faster. So what can be done?&lt;/span&gt;&lt;/p&gt;&lt;p style="box-sizing: border-box; margin: 0px 0px 1.5em; color: rgb(47, 51, 54); font-family: &amp;quot;Open Sans&amp;quot;, sans-serif; font-size: 20px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-align: justify; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; background-color: rgb(255, 255, 255); text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;&lt;span style="box-sizing: border-box; font-weight: 400;"&gt;Well, there is one family of plants with a unique ability. Species in the Fabaceae family (also called Legumes) grow small nodules on their roots and in those nodules they host special bacteria. These bacteria can fix nitrogen from the atmosphere and convert it into the type of nitrogen that plants can use. So while all other plants are competing for the limited inorganic nitrogen in the forest soil, the Fabaceae species just create their own through this symbiosis.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="box-sizing: border-box; margin: 0px 0px 1.5em; color: rgb(47, 51, 54); font-family: &amp;quot;Open Sans&amp;quot;, sans-serif; font-size: 20px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-align: justify; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; background-color: rgb(255, 255, 255); text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;&lt;span style="box-sizing: border-box; font-weight: 400;"&gt;But that's not all. When plant material of these species decompose, that ‘new’ nitrogen is made available to other plants around. So in effect, they are helping other plants without that ability, to grow too.&lt;/span&gt;&lt;/p&gt;&lt;p style="box-sizing: border-box; margin: 0px 0px 1.5em; color: rgb(47, 51, 54); font-family: &amp;quot;Open Sans&amp;quot;, sans-serif; font-size: 20px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-align: justify; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; background-color: rgb(255, 255, 255); text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;&lt;span style="box-sizing: border-box; font-weight: 400;"&gt;So what percentage of all the seedlings planted should be such n-fixers to maximise growth without reducing forest biodiversity?&lt;/span&gt;&lt;/p&gt;&lt;p style="box-sizing: border-box; margin: 0px; color: rgb(47, 51, 54); font-family: &amp;quot;Open Sans&amp;quot;, sans-serif; font-size: 20px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-align: justify; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; background-color: rgb(255, 255, 255); text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;&lt;span style="box-sizing: border-box; font-weight: 400;"&gt;To answer that, we set up the first experiment with 16,000 trees in 2020. The experiment includes 160 subplots, evenly divided between ones that have 0%, 10%, 30% and 60% n-fixer species.&lt;/span&gt;&lt;/p&gt;</v>
       </c>
       <c r="B4" t="str">
+        <v>UNNS_12</v>
+      </c>
+      <c r="C4" t="str">
+        <v>eeeeee</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>user sdfsdf</v>
+      </c>
+      <c r="F4" t="str">
+        <v>&lt;p&gt;&lt;strong&gt;Nitrogen-Fixing Species&lt;/strong&gt;&amp;nbsp;: Nitrogen is one of the key nutrients plants need to grow. To do so, they extract inorganic nitrogen from the forest soil. A lot of tropical dry forests are Nitrogen limited. That means that the low levels of nitrogen is the primary reason plants in that ecosystem are not growing faster. So what can be done? Well, there is one family of plants with a unique ability.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Species in the Fabaceae family (also called Legumes) grow small nodules on their roots and in those nodules they host special bacteria. These bacteria can fix nitrogen from the atmosphere and convert it into the type of nitrogen that plants can use. So while all other plants are competing for the limited inorganic nitrogen in the forest soil, the Fabaceae species just create their own through this symbiosis.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong style="color: rgb(255, 0, 255);"&gt;1. But that's not all. When plant material of these species decompose, that ‘new’ nitrogen is made available to other plants around. &lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong style="color: rgb(255, 0, 255);"&gt;2. So in effect, they are helping other plants without that ability, to grow too&lt;/strong&gt;. &lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;So what percentage of all the seedlings planted should be such n-fixers to maximise growth without reducing forest biodiversity? To answer that, we set up the first experiment with 16,000 trees in 2020. The experiment includes 160 subplots, evenly divided between ones that have 0%, 10%, 30% and 60% n-fixer species.&lt;/p&gt;</v>
+      </c>
+      <c r="G4" t="str">
+        <v>sdds_iL0lBUIJPW.jfif,tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_Di8ymyShYU.jpg,recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_MFsTvtLTB8.jpg</v>
+      </c>
+      <c r="H4" t="str">
+        <v>videoplayback_Ky2ki7hU1i.mp4,nature_video_30_seconds_whats_app_status_video_nature_background_videos_mEJFcPqJdn.mp4</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Sur</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>Oman</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2024-11-30 04:33:10.762Z</v>
+      </c>
+      <c r="M4" t="str">
+        <v>ptk9o3bnmqx67t8</v>
+      </c>
+      <c r="N4" t="str">
+        <v>4trqxoml9p9txoe</v>
+      </c>
+      <c r="O4" t="str">
+        <v>eee</v>
+      </c>
+      <c r="P4" t="str">
+        <v>2024-12-11</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>dsxsx</v>
+      </c>
+      <c r="R4" t="str">
+        <v>xn11riw6uavzhpf</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v>dede</v>
+      </c>
+      <c r="V4" t="str">
+        <v>59.52883852045824,22.54466761558986</v>
+      </c>
+      <c r="W4" t="str">
+        <v xml:space="preserve">Restoration ,Soil Treatment </v>
+      </c>
+      <c r="X4" t="str">
+        <v>{"colorIndex":0,"markerTypeIndex":6,"position":{"lat":22.54466761558986,"lng":59.52883852045824},"values":{"color":"#FF5733","image":"/assets/work.svg"}}</v>
+      </c>
+      <c r="Y4" t="str">
+        <v xml:space="preserve">Start Planting and Stop Talking </v>
+      </c>
+      <c r="Z4">
+        <v>2799</v>
+      </c>
+      <c r="AA4">
+        <v>1.6</v>
+      </c>
+      <c r="AB4" t="str">
+        <v xml:space="preserve">Gry  To Grebftugb </v>
+      </c>
+      <c r="AC4" t="str">
+        <v>4444</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>sdds_TGAjxvr2yf.jfif</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>xsd</v>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v>tree</v>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <v>Tropical coastal vegetation consisting of a shrub or tree that grows in coastal saline or brackish water</v>
+      </c>
+      <c r="AM4" t="str">
+        <v>2024-12-02</v>
+      </c>
+      <c r="AN4" t="str">
+        <v>active</v>
+      </c>
+      <c r="AO4" t="str">
+        <v>dd</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="str">
+        <v>n70upcwdmbamf2o</v>
+      </c>
+      <c r="AR4" t="str">
+        <v>Tree</v>
+      </c>
+      <c r="AS4" t="str">
+        <v xml:space="preserve">Orange,Mangroph </v>
+      </c>
+      <c r="AT4" t="str">
+        <v>2024-12-07 11:46:23.909Z</v>
+      </c>
+      <c r="AU4" t="str">
+        <v>2222222222e</v>
+      </c>
+      <c r="AV4" t="str">
+        <v>{"areaInfo":[{"area":2520.95,"areaId":"l7ns1a1ckux6e2i","areaName":"Location _1","areaType":"University","color":"#7132a8","id":"6cae65fb09d6e2f27640ca333423588a"},{"area":5500.91,"areaId":"qblcoi1ttxzcrth","areaName":"Location _2","areaType":"Parking","color":"#a83266","id":"3f37341ed1793d048d2830061bb5b0c5"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[59.52254480803137,22.548676514884676],[59.52245579864831,22.54895474683954],[59.52235309551537,22.54906224539903],[59.52226408613225,22.549081215724826],[59.52205183299043,22.54911915636727],[59.522010751737525,22.548821954385744],[59.52204498611465,22.548777690206308],[59.52207237361762,22.548733426011992],[59.52207922049334,22.548708132180593],[59.522113454870464,22.548676514884676],[59.52212714862196,22.54863857412046],[59.52217507675067,22.54861328027168],[59.52253111463193,22.548512104735835],[59.52254480803137,22.548676514884676]]],"type":"Polygon"},"id":"6cae65fb09d6e2f27640ca333423588a","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[59.524523555420274,22.549144450029686],[59.5243455366556,22.549707234904375],[59.52490698045102,22.54982105628477],[59.52554373987948,22.54930885933146],[59.524523555420274,22.549144450029686]]],"type":"Polygon"},"id":"3f37341ed1793d048d2830061bb5b0c5","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW4" t="str">
+        <v>dxsx</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;p&gt;&lt;br&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, hcelp patrol two reserves and are working towards establishing a jaguar corridor.Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor. Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;_x000d_
+&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over&lt;/p&gt;_x000d_
+&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;_x000d_
+&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;_x000d_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000d_
+&lt;p&gt;Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, hdelp patrol two reserves and are working towards establishing a jaguar corridor.Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor. Yucat&amp;aacute;n Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We&amp;rsquo;ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
+      </c>
+      <c r="B5" t="str">
         <v>Project</v>
       </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Adarsh Arya</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v>Akbou</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Algeria</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2024-11-01 19:32:17.734Z</v>
-      </c>
-      <c r="L4" t="str">
-        <v>ptk9o3bnmqx67t8</v>
-      </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v>2024-11-27</v>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v>vn2eke2o6pwm4hf</v>
-      </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
-      <c r="R4" t="str">
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <v>51.21369572394195,25.194732398675043</v>
-      </c>
-      <c r="T4" t="str">
-        <v xml:space="preserve">Restoration ,Soil Treatment </v>
-      </c>
-      <c r="U4" t="str">
-        <v>{"colorIndex":0,"markerTypeIndex":0,"position":{"lat":25.194732398675043,"lng":51.21369572394195},"values":{"color":"#FF5733","image":"/assets/tree.svg"}}</v>
-      </c>
-      <c r="V4" t="str">
-        <v>Test 1</v>
-      </c>
-      <c r="W4">
-        <v>10</v>
-      </c>
-      <c r="X4">
-        <v>55</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>sourav bapari</v>
-      </c>
-      <c r="Z4" t="str">
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <v>children_82272_1280_lCwbH6Zar8.jpg</v>
-      </c>
-      <c r="AB4" t="str">
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <v/>
-      </c>
-      <c r="AD4" t="str">
-        <v>tree</v>
-      </c>
-      <c r="AE4" t="str">
-        <v/>
-      </c>
-      <c r="AF4" t="str">
-        <v>child_8676542_1280_RZRn6FHoLf.jpg</v>
-      </c>
-      <c r="AI4" t="str">
-        <v>Test 1</v>
-      </c>
-      <c r="AJ4" t="str">
-        <v>2024-11-19</v>
-      </c>
-      <c r="AK4" t="str">
-        <v>inactive</v>
-      </c>
-      <c r="AL4" t="str">
-        <v/>
-      </c>
-      <c r="AM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="str">
-        <v>2t5cayzas22mj1r</v>
-      </c>
-      <c r="AO4" t="str">
-        <v>KG</v>
-      </c>
-      <c r="AP4" t="str">
-        <v>Tree Unit</v>
-      </c>
-      <c r="AQ4" t="str">
-        <v>2024-11-16 13:26:52.215Z</v>
-      </c>
-      <c r="AR4" t="str">
-        <v/>
-      </c>
-      <c r="AS4" t="str">
-        <v>{"areaInfo":[{"area":60747.89,"areaId":"k7w1coon56jp6em","areaName":"Area 1","areaType":"School","color":"#32a852","id":"20fe4b649c17392cc676ff471f89fc0a"},{"area":43938.38,"areaId":"qblcoi1ttxzcrth","areaName":"area 2","areaType":"Parking","color":"#a83266","id":"e80c6c91198098247755d96dc65eb003"},{"area":909.04,"areaId":"pezumjll0oznaro","areaName":"Area 1","areaType":"Shopping Mall","color":"#3283a8","id":"0741216e720dd0ad71d38f1c8f567c0b"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[51.20842786543719,25.19558671385019],[51.21196838133605,25.196052701420086],[51.2121400427138,25.195411968051616],[51.21229024641778,25.194868312853274],[51.212204415729474,25.194518818944886],[51.2117108892711,25.194499402586715],[51.211303193501095,25.19434407161407],[51.21141048186095,25.193994576200282],[51.21121736281279,25.193703329256337],[51.21098132841939,25.193509164240425],[51.21012302153409,25.19385866104615],[51.20982261412502,25.194149907619646],[51.20952220671478,25.194402320752545],[51.20922179930571,25.19481006393869],[51.20926471464986,25.195140140756322],[51.209157426288954,25.195470216679368],[51.20857806914117,25.195373135618027],[51.20842786543719,25.19558671385019]]],"type":"Polygon"},"id":"20fe4b649c17392cc676ff471f89fc0a","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[51.20939346068235,25.19368391276919],[51.20842786543719,25.193975159759546],[51.207633931568694,25.193975159759546],[51.20722623579866,25.193761578701213],[51.20720477812603,25.192965500548226],[51.20754810088033,25.19246066780393],[51.208685357502105,25.19238300104233],[51.20892139235863,25.192402417960494],[51.21061654845548,25.192499501388795],[51.210015733636226,25.193159666654466],[51.20939346068235,25.19368391276919]]],"type":"Polygon"},"id":"e80c6c91198098247755d96dc65eb003","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[51.212187025185216,25.193574317041197],[51.21223592245494,25.193640685882215],[51.21229986503681,25.193661107056542],[51.212395778909695,25.19362536999941],[51.21254623204251,25.193450088088554],[51.21247288614029,25.1933649996907],[51.21235440429683,25.19332245547021],[51.212138127917115,25.19349263226451],[51.212187025185216,25.193574317041197]]],"type":"Polygon"},"id":"0741216e720dd0ad71d38f1c8f567c0b","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
-      </c>
-      <c r="AT4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>&lt;p&gt;&lt;strong style="background-color: rgb(255, 153, 0);"&gt;Restoration Advice&lt;/strong&gt;&lt;br&gt;Planting a tree is easy. Restoring an ecosystem is hard. We’re here to help. Do you need advice to address challenges in your restoration project? You’re not alone. Lot’s of projects need it. &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out &lt;a href="https://www.youtube.com/" target="_blank" style="background-color: rgb(74, 134, 232);"&gt;here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Steps as Following :&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;1. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;2. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;3. Our team of restoration ecologists&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&lt;/p&gt;</v>
-      </c>
       <c r="C5" t="str">
-        <v>Oman, Muscat , AL Seeb 132</v>
+        <v>ww.c.com</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>Demo Employe,Adarsh Arya</v>
+        <v>Rahul Sen</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;&lt;strong style="background-color: rgb(255, 153, 0);"&gt;Restoration Advice&lt;/strong&gt;&lt;br&gt;Planting a tree is easy. Restoring an ecosystem is hard. We’re here to help. Do you need advice to address challenges in your restoration project? You’re not alone. Lot’s of projects need it. &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out &lt;a href="https://www.youtube.com/" target="_blank" style="background-color: rgb(74, 134, 232);"&gt;here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Steps as Following :&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;1. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;2. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;3. Our team of restoration ecologists&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&lt;/p&gt;</v>
+        <v>&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;u&gt;&lt;strong&gt;Yucatán Restoration Protecting and regrowing the Mayan forests &lt;/strong&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;1. of the Yucatan Peninsula in southern Mexico. We’ve planted over&lt;/p&gt;&lt;p&gt;2. 12 million trees, help patrol two reserves and&lt;/p&gt;&lt;p&gt;3. are working towards establishing a jaguar corridor.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&amp;nbsp;Yucatán Restoration Protecting and regrowing the Mayan forests of the Yucatan Peninsula in southern Mexico. We’ve planted over 12 million trees, help patrol two reserves and are working towards establishing a jaguar corridor.&lt;/p&gt;</v>
       </c>
       <c r="G5" t="str">
-        <v>children_82272_1280_hVhv7lfuao.jpg,child_8676531_1280_ouGV95iP96.jpg</v>
+        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_i4KVyDUHDr.jpg</v>
       </c>
       <c r="H5" t="str">
-        <v>49811_458438860_large_mdMr0OJar3.mp4</v>
+        <v>videoplayback_2_3IkzAdIwg1.mp4</v>
       </c>
       <c r="I5" t="str">
-        <v>Adam</v>
+        <v>Barkā’</v>
       </c>
       <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
         <v>Oman</v>
       </c>
-      <c r="K5" t="str">
-        <v>2024-10-28 12:20:25.539Z</v>
-      </c>
       <c r="L5" t="str">
-        <v>ptk9o3bnmqx67t8</v>
+        <v>2024-11-07 06:24:47.837Z</v>
       </c>
       <c r="M5" t="str">
-        <v>MAZINALMAMA017@GMAIL.COM</v>
+        <v>e1z3dz3fqgzqw3v</v>
       </c>
       <c r="N5" t="str">
-        <v>2024-11-08</v>
+        <v>jowd8dfzf9ijmb0</v>
       </c>
       <c r="O5" t="str">
-        <v>ert</v>
+        <v>ww.c.com</v>
       </c>
       <c r="P5" t="str">
-        <v>og4kmkyimfxk0xi</v>
+        <v>2024-11-28</v>
       </c>
       <c r="Q5" t="str">
-        <v/>
+        <v>ww.c.com</v>
       </c>
       <c r="R5" t="str">
-        <v>erter</v>
-      </c>
-      <c r="S5" t="str">
-        <v>59.290740096985076,22.08123214694622</v>
+        <v>m2f61tdxm2x1kyj</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
       </c>
       <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="V5" t="str">
+        <v>54.14762185751965,17.049399328494104</v>
+      </c>
+      <c r="W5" t="str">
         <v xml:space="preserve">Restoration ,Soil Treatment </v>
       </c>
-      <c r="U5" t="str">
-        <v>{"colorIndex":7,"markerTypeIndex":2,"position":{"lat":22.08123214694622,"lng":59.290740096985076},"values":{"color":"#000000","image":"/assets/bird.svg"}}</v>
-      </c>
-      <c r="V5" t="str">
-        <v>Mazin Project In Jalan BB</v>
-      </c>
-      <c r="W5">
-        <v>24442</v>
-      </c>
-      <c r="X5">
-        <v>12</v>
+      <c r="X5" t="str">
+        <v>{"colorIndex":6,"markerTypeIndex":0,"position":{"lat":17.049399328494104,"lng":54.14762185751965},"values":{"color":"#D033FF","image":"/assets/tree.svg"}}</v>
       </c>
       <c r="Y5" t="str">
+        <v>Planting Trees _2</v>
+      </c>
+      <c r="Z5">
+        <v>2000</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="str">
         <v>Adarsh Arya</v>
       </c>
-      <c r="Z5" t="str">
-        <v>+968 90945921</v>
-      </c>
-      <c r="AA5" t="str">
-        <v>images_4ny4I37V5Y.jfif</v>
-      </c>
-      <c r="AB5" t="str">
-        <v>errt</v>
-      </c>
       <c r="AC5" t="str">
-        <v>1720214888965_d8oZmleRMr.png,beautiful_tree_middle_field_covered_with_grass_with_tree_line_background_AtoxxfBfQ2.jpg</v>
+        <v>ww.c.com</v>
       </c>
       <c r="AD5" t="str">
+        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_hkhwaitGQc.jpg</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AF5" t="str">
+        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_3JEbsfXbBx.jpg,recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_vh2Xxm8p1y.jpg</v>
+      </c>
+      <c r="AG5" t="str">
         <v>tree</v>
       </c>
-      <c r="AE5" t="str">
-        <v>videoplayback_3_JuUVbJeDJd.mp4,nature_video_30_seconds_whats_app_status_video_nature_background_videos_JhLBCaPGea.mp4</v>
-      </c>
-      <c r="AF5" t="str">
-        <v>oikjo_AGIOrb4tsW.PNG</v>
+      <c r="AH5" t="str">
+        <v>videoplayback_3_LuYydL0iU0.mp4,videoplayback_2_mY9T8cQ2PS.mp4,videoplayback_1_tW5aWj7WlI.mp4</v>
       </c>
       <c r="AI5" t="str">
-        <v>Planting a tree is easy. Restoring an ecosystem is hard. We’re here to help.</v>
-      </c>
-      <c r="AJ5" t="str">
-        <v>2024-10-29</v>
-      </c>
-      <c r="AK5" t="str">
+        <v>tree_planting_background_hd_images_photos_11648220512bnzm8ntrza_n6scxBLAB6.jpg</v>
+      </c>
+      <c r="AL5" t="str">
+        <v>ver 100,000 children and youth in 76 countries have become Climatef Justice Ambassadors at our academies, where we empower each other about the climate crisis. As Ambassadors xfd</v>
+      </c>
+      <c r="AM5" t="str">
+        <v>2024-11-10</v>
+      </c>
+      <c r="AN5" t="str">
         <v>active</v>
       </c>
-      <c r="AL5" t="str">
-        <v>ert</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="str">
+      <c r="AO5" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="str">
         <v>2t5cayzas22mj1r</v>
       </c>
-      <c r="AO5" t="str">
-        <v>KG</v>
-      </c>
-      <c r="AP5" t="str">
-        <v>Tree Unit</v>
-      </c>
-      <c r="AQ5" t="str">
-        <v>2024-11-16 05:47:24.907Z</v>
-      </c>
       <c r="AR5" t="str">
-        <v>www.m.com</v>
+        <v>Tree</v>
       </c>
       <c r="AS5" t="str">
-        <v>{"areaInfo":[{"area":9830.72,"areaName":"Jalan BB 1","areaType":"School","id":"9bd2a2d5c1ac7f73e796984f0ff5ae02"},{"area":1408.84,"areaName":"Jalan BB 2","areaType":"University","id":"b730d9e9ef673364d607e589f869add3"},{"area":1142.76,"areaName":"Jalan BB 3","areaType":"University","id":"609d7a4a604596a37963901dd5c284ec"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[59.28876452255369,22.081511171657667],[59.28950154682764,22.081664155405633],[59.289607678323335,22.081516635365972],[59.28964895168369,22.081456534564182],[59.28962536690631,22.081106856665954],[59.28961947071201,22.080806351531606],[59.28944848107983,22.080538628235587],[59.289041643680235,22.080549555727245],[59.28880579591282,22.08058233819591],[59.288770418748044,22.08105768314209],[59.28876452255369,22.081511171657667]]],"type":"Polygon"},"id":"9bd2a2d5c1ac7f73e796984f0ff5ae02","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[59.287419984726824,22.080624215152284],[59.28789796784591,22.08056220552257],[59.2878692888591,22.080323025265542],[59.28737218641575,22.080367317936393],[59.287419984726824,22.080624215152284]]],"type":"Polygon"},"id":"b730d9e9ef673364d607e589f869add3","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[59.291471205685696,22.081770841538898],[59.291524681104306,22.081718928962346],[59.29147884503132,22.081617463417672],[59.291466112789635,22.0815915071031],[59.291443194752645,22.081610384423286],[59.29143046250985,22.08157027011589],[59.2914508340983,22.081556112121973],[59.291468659238205,22.081556112121973],[59.29147375213421,22.081534875129435],[59.29147884503132,22.081520717131966],[59.29150176306834,22.081537234795533],[59.29150430951694,22.081549033125484],[59.291550145589866,22.081534875129435],[59.291575610074375,22.081530155797083],[59.29158834231717,22.081513638132705],[59.291601074559935,22.08149948013407],[59.291738582777754,22.081457006127792],[59.29178187240208,22.08150655913404],[59.29179460464485,22.08153251546328],[59.29180224399059,22.081551392790345],[59.29180733688767,22.081567910450318],[59.29180733688767,22.08158678777363],[59.291809883336214,22.08161274408812],[59.291809883336214,22.081626902076366],[59.29180733688767,22.081648139055062],[59.291792058196336,22.081681174349484],[59.29177932595354,22.0817094903108],[59.291761500814744,22.08174252559087],[59.29175131496663,22.081775560846538],[59.29174367562095,22.081810955772696],[59.29172330403361,22.08183219272368],[59.2917054787776,22.081865227930663],[59.29169529288407,22.08188410517033],[59.291471205685696,22.081770841538898]]],"type":"Polygon"},"id":"609d7a4a604596a37963901dd5c284ec","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+        <v>Tree ,Mango,Tree Unit</v>
       </c>
       <c r="AT5" t="str">
-        <v>erter</v>
+        <v>2024-12-07 11:46:23.920Z</v>
+      </c>
+      <c r="AU5" t="str">
+        <v>ww.c.com</v>
+      </c>
+      <c r="AV5" t="str">
+        <v>{"areaInfo":[{"area":57442.86,"areaId":"pezumjll0oznaro","areaName":"Lans 1","areaType":"Shopping Mall","color":"#3283a8","id":"c2290088fa23ada7c2112e1322a3f8e0"},{"area":216010.71,"areaId":"l7ns1a1ckux6e2i","areaName":"lans 2","areaType":"University","color":"#7132a8","id":"9a27865ac398668fe255959bb63f4616"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[54.134486645838365,17.051960822065695],[54.140729600325244,17.054196433919742],[54.14085832103618,17.05411439359044],[54.14083686758451,17.05378623191396],[54.14077250722963,17.053170927217067],[54.14066523997033,17.052740212722696],[54.140665240120825,17.052658171677777],[54.134486645838365,17.051960822065695]]],"type":"Polygon"},"id":"c2290088fa23ada7c2112e1322a3f8e0","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[54.14150343300179,17.051626294803384],[54.1438668040353,17.050996867329772],[54.14520042054738,17.050674083186962],[54.14638210606324,17.050448133955825],[54.14753002913611,17.0504319947147],[54.14828968411169,17.050415855471343],[54.148745477096725,17.050109209595945],[54.14884676442574,17.049689588107896],[54.14889740809113,17.04814020829663],[54.14884676442574,17.04712342081227],[54.14432259702028,17.04786583761515],[54.144339478240994,17.049786423919414],[54.14086194657756,17.049302244359836],[54.14087882779998,17.049366801707265],[54.141857957055066,17.050335826576827],[54.14150343300179,17.051626294803384]]],"type":"Polygon"},"id":"9a27865ac398668fe255959bb63f4616","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW5" t="str">
+        <v>ww.c.com</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>&lt;p&gt;asddas&lt;/p&gt;</v>
+        <v>&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive im&amp;nbsp; Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;&lt;strong&gt;&lt;u&gt;Climateers has developed our  opp:&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;1. Climateers has developed our platform with its directories&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;2. collaborations spaces and our Climate Action Plan system &lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;3. to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; font-size: 22px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&amp;nbsp;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Project</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Oman-Muscat-sib</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>sourav bapari,Adarsh Arya</v>
+        <v>Rahul Sen</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive im&amp;nbsp; Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;&lt;strong&gt;&lt;u&gt;Climateers has developed our  opp:&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;1. Climateers has developed our platform with its directories&lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;2. collaborations spaces and our Climate Action Plan system &lt;/h2&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial; font-size: 22px;"&gt;3. to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;h2 style="box-sizing: border-box; margin: 0px; padding: 0px 0px 10px; border: 0px; outline: 0px; font-size: 22px; text-size-adjust: 100%; vertical-align: baseline; background: rgb(255, 255, 255); color: rgb(51, 51, 51); line-height: 1em; font-weight: 500; font-family: &amp;quot;Open Sans&amp;quot;, Arial, sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; white-space: normal; text-decoration-thickness: initial; text-decoration-style: initial; text-decoration-color: initial;"&gt;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&amp;nbsp;Climateers has developed our platform with its directories, collaborations spaces and our Climate Action Plan system to help connect you with climate opportunity and create a ‘domino effect’ of positive impact.&lt;/h2&gt;</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_95RRBy1jhr.jpg,ddda_S7FZuakn0Q.PNG</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>videoplayback_0OxNPTpGKj.mp4</v>
       </c>
       <c r="I6" t="str">
-        <v>Muscat</v>
+        <v>Nizwa</v>
       </c>
       <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
         <v>Oman</v>
       </c>
-      <c r="K6" t="str">
-        <v>2024-10-27 04:21:43.726Z</v>
-      </c>
       <c r="L6" t="str">
-        <v/>
+        <v>2024-11-02 05:09:16.078Z</v>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>ptk9o3bnmqx67t8</v>
       </c>
       <c r="N6" t="str">
-        <v>2024-11-28</v>
+        <v>xpm2o462b8ytbwo</v>
       </c>
       <c r="O6" t="str">
-        <v/>
+        <v>maz@gmail.com</v>
       </c>
       <c r="P6" t="str">
-        <v>tt7p0slj3bwx606</v>
+        <v>2024-11-14</v>
       </c>
       <c r="Q6" t="str">
-        <v/>
+        <v>www.m.com</v>
       </c>
       <c r="R6" t="str">
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <v>58.34946908552854,23.59315474609643</v>
+        <v>e32x85bkiglg69u</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
       </c>
       <c r="T6" t="str">
-        <v>Area</v>
+        <v/>
       </c>
       <c r="U6" t="str">
-        <v>{"colorIndex":0,"markerTypeIndex":4,"position":{"lat":23.59315474609643,"lng":58.34946908552854},"values":{"color":"#FF5733","image":"/assets/plants.svg"}}</v>
+        <v>www.m.com</v>
       </c>
       <c r="V6" t="str">
-        <v xml:space="preserve">Planting Tree _ Test By Mazin </v>
-      </c>
-      <c r="W6">
-        <v>144444</v>
-      </c>
-      <c r="X6">
-        <v>33</v>
+        <v>57.63373249388158,22.98634704920714</v>
+      </c>
+      <c r="W6" t="str">
+        <v>Recycling ,Collection</v>
+      </c>
+      <c r="X6" t="str">
+        <v>{"colorIndex":0,"markerTypeIndex":0,"position":{"lat":22.98634704920714,"lng":57.63373249388158},"values":{"color":"#FF5733","image":"/assets/tree.svg"}}</v>
       </c>
       <c r="Y6" t="str">
-        <v>Adarsh Arya</v>
-      </c>
-      <c r="Z6" t="str">
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <v>fffff_SssDO7zsQI.PNG</v>
+        <v xml:space="preserve">STOP </v>
+      </c>
+      <c r="Z6">
+        <v>39000</v>
+      </c>
+      <c r="AA6">
+        <v>43</v>
       </c>
       <c r="AB6" t="str">
-        <v/>
+        <v>Sourav Bapari</v>
       </c>
       <c r="AC6" t="str">
-        <v/>
+        <v>+968 90945921</v>
       </c>
       <c r="AD6" t="str">
-        <v>tree</v>
+        <v>recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_ul3NvLOkII.jpg</v>
       </c>
       <c r="AE6" t="str">
         <v/>
       </c>
       <c r="AF6" t="str">
-        <v>oikjo_QnijvAZ5ii.PNG</v>
+        <v>65134730937_12_ea08_e2_18_cb_486_a_ae35_881_ba6_e89802_gFNM5Glb3H.jpeg,beautiful_tree_middle_field_covered_with_grass_with_tree_line_background_i669IPue2h.jpg</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>others</v>
+      </c>
+      <c r="AH6" t="str">
+        <v>videoplayback_3_t18rqmiRDZ.mp4,nature_video_30_seconds_whats_app_status_video_nature_background_videos_EKzLw4lOgW.mp4</v>
       </c>
       <c r="AI6" t="str">
-        <v>Become part of the campaign: Take a photo of yourself with a leaf from a tree of your choice and post it with the hashtag</v>
-      </c>
-      <c r="AJ6" t="str">
-        <v>2024-10-14</v>
-      </c>
-      <c r="AK6" t="str">
+        <v>recycling_bin_full_plastic_waste_separate_waste_collection_conceptai_generated_618780_11260_wweTJ128Rg.jpg</v>
+      </c>
+      <c r="AL6" t="str">
+        <v>This Project is Certified and Created by Oman Government as cv</v>
+      </c>
+      <c r="AM6" t="str">
+        <v>2024-10-26</v>
+      </c>
+      <c r="AN6" t="str">
         <v>active</v>
       </c>
-      <c r="AL6" t="str">
-        <v/>
-      </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="str">
-        <v>ew8txwsxjomsuiv</v>
-      </c>
       <c r="AO6" t="str">
-        <v>Tree</v>
-      </c>
-      <c r="AP6" t="str">
-        <v>Tree Unit</v>
+        <v>www.m.com</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>1</v>
       </c>
       <c r="AQ6" t="str">
-        <v>2024-11-10 07:08:45.101Z</v>
+        <v>cai41ibv2bt7buw</v>
       </c>
       <c r="AR6" t="str">
-        <v/>
+        <v>KG</v>
       </c>
       <c r="AS6" t="str">
-        <v>{"areaInfo":[{"area":180756.23,"areaName":"Area 1","areaType":"University","id":"c3edebfe973cae94eee7f84de1fdaf73"},{"area":210005.54,"areaName":"Area 2","areaType":"Shopping Mall","id":"51d689d136a49605316a9013eb775916"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[58.34044613440136,23.594668868221945],[58.34656157095503,23.59580936425671],[58.34722675879112,23.592879449287082],[58.34336437780945,23.59301709776429],[58.3411756952531,23.59323340222204],[58.338965555025254,23.593548026250474],[58.3389011820085,23.594393574590498],[58.34044613440136,23.594668868221945]]],"type":"Polygon"},"id":"c3edebfe973cae94eee7f84de1fdaf73","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[58.3504454096082,23.595691382368372],[58.35445799429496,23.59687119647873],[58.35722603399796,23.596753215545434],[58.35707583029398,23.595416090882793],[58.35705437262135,23.592958105577154],[58.35370697577062,23.592859785207736],[58.35370697577062,23.594314919160112],[58.351153512788414,23.594452566131082],[58.3504454096082,23.595691382368372]]],"type":"Polygon"},"id":"51d689d136a49605316a9013eb775916","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+        <v>PET</v>
       </c>
       <c r="AT6" t="str">
-        <v/>
+        <v>2024-12-07 11:46:23.897Z</v>
+      </c>
+      <c r="AU6" t="str">
+        <v>www.m.com</v>
+      </c>
+      <c r="AV6" t="str">
+        <v>{"areaInfo":[{"area":149463.73,"areaId":"l7ns1a1ckux6e2i","areaName":"STOP Area 1","areaType":"University","color":"#7132a8","id":"1dc2d4dee685fc1da43313d44206b910"},{"area":138354.36,"areaId":"qblcoi1ttxzcrth","areaName":"STOP Area 2","areaType":"Parking","color":"#a83266","id":"03d516a9822b28e389b94826db44551d"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[57.627543548017314,22.99610582982376],[57.629544849572454,22.997224340760383],[57.63314242737064,22.992947631276266],[57.63126025090705,22.99156589618309],[57.627543548017314,22.99610582982376]]],"type":"Polygon"},"id":"1dc2d4dee685fc1da43313d44206b910","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[57.633855515440644,22.990340202325513],[57.62939319745681,22.988760239522193],[57.636580103825935,22.985857009684096],[57.633855515440644,22.990340202325513]]],"type":"Polygon"},"id":"03d516a9822b28e389b94826db44551d","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW6" t="str">
+        <v>www.m.com</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>&lt;p&gt;qweqw&lt;/p&gt;</v>
+        <v>&lt;p&gt;xccvxz&lt;/p&gt;</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Project</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -1217,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>sourav bapari</v>
+        <v>Adarsh Arya</v>
       </c>
       <c r="F7" t="str">
         <v/>
@@ -1229,117 +1304,555 @@
         <v/>
       </c>
       <c r="I7" t="str">
+        <v>Akbou</v>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>Algeria</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2024-11-01 19:32:17.734Z</v>
+      </c>
+      <c r="M7" t="str">
+        <v>ptk9o3bnmqx67t8</v>
+      </c>
+      <c r="N7" t="str">
+        <v>haiwrvm4fqxwcvj</v>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v>2024-11-27</v>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v>vn2eke2o6pwm4hf</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v>51.21369572394195,25.194732398675043</v>
+      </c>
+      <c r="W7" t="str">
+        <v xml:space="preserve">Restoration ,Soil Treatment </v>
+      </c>
+      <c r="X7" t="str">
+        <v>{"colorIndex":0,"markerTypeIndex":0,"position":{"lat":25.194732398675043,"lng":51.21369572394195},"values":{"color":"#FF5733","image":"/assets/tree.svg"}}</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Test 1</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>55</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>Rahul Sen</v>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v>children_82272_1280_lCwbH6Zar8.jpg</v>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v>tree</v>
+      </c>
+      <c r="AH7" t="str">
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <v>child_8676542_1280_RZRn6FHoLf.jpg</v>
+      </c>
+      <c r="AL7" t="str">
+        <v>Test 1cv</v>
+      </c>
+      <c r="AM7" t="str">
+        <v>2024-11-19</v>
+      </c>
+      <c r="AN7" t="str">
+        <v>inactive</v>
+      </c>
+      <c r="AO7" t="str">
+        <v/>
+      </c>
+      <c r="AP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="str">
+        <v>2t5cayzas22mj1r</v>
+      </c>
+      <c r="AR7" t="str">
+        <v>KG</v>
+      </c>
+      <c r="AS7" t="str">
+        <v>Tree Unit</v>
+      </c>
+      <c r="AT7" t="str">
+        <v>2024-12-07 11:46:23.929Z</v>
+      </c>
+      <c r="AU7" t="str">
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <v>{"areaInfo":[{"area":60747.89,"areaId":"k7w1coon56jp6em","areaName":"Area 1","areaType":"School","color":"#32a852","id":"20fe4b649c17392cc676ff471f89fc0a"},{"area":43938.38,"areaId":"qblcoi1ttxzcrth","areaName":"area 2","areaType":"Parking","color":"#a83266","id":"e80c6c91198098247755d96dc65eb003"},{"area":909.04,"areaId":"pezumjll0oznaro","areaName":"Area 1","areaType":"Shopping Mall","color":"#3283a8","id":"0741216e720dd0ad71d38f1c8f567c0b"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[51.20842786543719,25.19558671385019],[51.21196838133605,25.196052701420086],[51.2121400427138,25.195411968051616],[51.21229024641778,25.194868312853274],[51.212204415729474,25.194518818944886],[51.2117108892711,25.194499402586715],[51.211303193501095,25.19434407161407],[51.21141048186095,25.193994576200282],[51.21121736281279,25.193703329256337],[51.21098132841939,25.193509164240425],[51.21012302153409,25.19385866104615],[51.20982261412502,25.194149907619646],[51.20952220671478,25.194402320752545],[51.20922179930571,25.19481006393869],[51.20926471464986,25.195140140756322],[51.209157426288954,25.195470216679368],[51.20857806914117,25.195373135618027],[51.20842786543719,25.19558671385019]]],"type":"Polygon"},"id":"20fe4b649c17392cc676ff471f89fc0a","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[51.20939346068235,25.19368391276919],[51.20842786543719,25.193975159759546],[51.207633931568694,25.193975159759546],[51.20722623579866,25.193761578701213],[51.20720477812603,25.192965500548226],[51.20754810088033,25.19246066780393],[51.208685357502105,25.19238300104233],[51.20892139235863,25.192402417960494],[51.21061654845548,25.192499501388795],[51.210015733636226,25.193159666654466],[51.20939346068235,25.19368391276919]]],"type":"Polygon"},"id":"e80c6c91198098247755d96dc65eb003","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[51.212187025185216,25.193574317041197],[51.21223592245494,25.193640685882215],[51.21229986503681,25.193661107056542],[51.212395778909695,25.19362536999941],[51.21254623204251,25.193450088088554],[51.21247288614029,25.1933649996907],[51.21235440429683,25.19332245547021],[51.212138127917115,25.19349263226451],[51.212187025185216,25.193574317041197]]],"type":"Polygon"},"id":"0741216e720dd0ad71d38f1c8f567c0b","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>&lt;p&gt;&lt;strong style="background-color: rgb(255, 153, 0);"&gt;Restoration Advice&lt;/strong&gt;&lt;br&gt;Planting a tree is easy. Restoring an ecosystem is hard. We’re here to help. Do you need advice to address challenges in your restoration project? You’re not alone. Lot’s of projects need it. &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out &lt;a href="https://www.youtube.com/" target="_blank" style="background-color: rgb(74, 134, 232);"&gt;here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Steps as Following :&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;1. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;2. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;3. Our team of restoration ecologists&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&lt;/p&gt;</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Project</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Oman, Muscat , AL Seeb 132</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Demo Employe,Adarsh Arya</v>
+      </c>
+      <c r="F8" t="str">
+        <v>&lt;p&gt;&lt;strong style="background-color: rgb(255, 153, 0);"&gt;Restoration Advice&lt;/strong&gt;&lt;br&gt;Planting a tree is easy. Restoring an ecosystem is hard. We’re here to help. Do you need advice to address challenges in your restoration project? You’re not alone. Lot’s of projects need it. &lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out &lt;a href="https://www.youtube.com/" target="_blank" style="background-color: rgb(74, 134, 232);"&gt;here&lt;/a&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;u&gt;Steps as Following :&amp;nbsp;&lt;/u&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;1. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;2. Our team of restoration ecologists &lt;/p&gt;&lt;p&gt;3. Our team of restoration ecologists&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;present us with a really difficult problem, we may come to visit you on the ground to figure it out&amp;nbsp;Our team of restoration ecologists provide free, confidential advice. We can address most challenges with a couple of zoom calls. If you present us with a really difficult problem, we may come to visit you on the ground to figure it out&lt;/p&gt;</v>
+      </c>
+      <c r="G8" t="str">
+        <v>children_82272_1280_hVhv7lfuao.jpg,child_8676531_1280_ouGV95iP96.jpg</v>
+      </c>
+      <c r="H8" t="str">
+        <v>49811_458438860_large_mdMr0OJar3.mp4</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>Oman</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2024-10-28 12:20:25.539Z</v>
+      </c>
+      <c r="M8" t="str">
+        <v>ptk9o3bnmqx67t8</v>
+      </c>
+      <c r="N8" t="str">
+        <v>ifmbal40l9szkd5</v>
+      </c>
+      <c r="O8" t="str">
+        <v>MAZINALMAMA017@GMAIL.COM</v>
+      </c>
+      <c r="P8" t="str">
+        <v>2024-11-08</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>ert</v>
+      </c>
+      <c r="R8" t="str">
+        <v>og4kmkyimfxk0xi</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v>erter</v>
+      </c>
+      <c r="V8" t="str">
+        <v>59.290740096985076,22.08123214694622</v>
+      </c>
+      <c r="W8" t="str">
+        <v xml:space="preserve">Restoration ,Soil Treatment </v>
+      </c>
+      <c r="X8" t="str">
+        <v>{"colorIndex":7,"markerTypeIndex":2,"position":{"lat":22.08123214694622,"lng":59.290740096985076},"values":{"color":"#000000","image":"/assets/bird.svg"}}</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>Mazin Project In Jalan BB</v>
+      </c>
+      <c r="Z8">
+        <v>24442</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="str">
+        <v xml:space="preserve">Adarsh Arya,user sdfsdf,Gray To Green User,Gry  To Grebftugb </v>
+      </c>
+      <c r="AC8" t="str">
+        <v>+968 90945921</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>images_4ny4I37V5Y.jfif</v>
+      </c>
+      <c r="AE8" t="str">
+        <v>errt</v>
+      </c>
+      <c r="AF8" t="str">
+        <v>1720214888965_d8oZmleRMr.png,beautiful_tree_middle_field_covered_with_grass_with_tree_line_background_AtoxxfBfQ2.jpg</v>
+      </c>
+      <c r="AG8" t="str">
+        <v>tree</v>
+      </c>
+      <c r="AH8" t="str">
+        <v>videoplayback_3_JuUVbJeDJd.mp4,nature_video_30_seconds_whats_app_status_video_nature_background_videos_JhLBCaPGea.mp4</v>
+      </c>
+      <c r="AI8" t="str">
+        <v>oikjo_AGIOrb4tsW.PNG</v>
+      </c>
+      <c r="AL8" t="str">
+        <v>Planting a tree is easy. Restoring an ecosystem is hard. We’re here to help.dv</v>
+      </c>
+      <c r="AM8" t="str">
+        <v>2024-10-29</v>
+      </c>
+      <c r="AN8" t="str">
+        <v>active</v>
+      </c>
+      <c r="AO8" t="str">
+        <v>ert</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="str">
+        <v>2t5cayzas22mj1r</v>
+      </c>
+      <c r="AR8" t="str">
+        <v>KG</v>
+      </c>
+      <c r="AS8" t="str">
+        <v>Tree Unit</v>
+      </c>
+      <c r="AT8" t="str">
+        <v>2024-12-13 18:48:14.007Z</v>
+      </c>
+      <c r="AU8" t="str">
+        <v>www.m.com</v>
+      </c>
+      <c r="AV8" t="str">
+        <v>{"areaInfo":[{"area":9830.72,"areaId":"","areaName":"Jalan BB 1","areaType":"School","color":"","id":"9bd2a2d5c1ac7f73e796984f0ff5ae02"},{"area":1408.84,"areaId":"","areaName":"Jalan BB 2","areaType":"University","color":"","id":"b730d9e9ef673364d607e589f869add3"},{"area":1142.76,"areaId":"","areaName":"Jalan BB 3","areaType":"University","color":"","id":"609d7a4a604596a37963901dd5c284ec"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[59.28876452255369,22.081511171657667],[59.28950154682764,22.081664155405633],[59.289607678323335,22.081516635365972],[59.28964895168369,22.081456534564182],[59.28962536690631,22.081106856665954],[59.28961947071201,22.080806351531606],[59.28944848107983,22.080538628235587],[59.289041643680235,22.080549555727245],[59.28880579591282,22.08058233819591],[59.288770418748044,22.08105768314209],[59.28876452255369,22.081511171657667]]],"type":"Polygon"},"id":"9bd2a2d5c1ac7f73e796984f0ff5ae02","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[59.287419984726824,22.080624215152284],[59.28789796784591,22.08056220552257],[59.2878692888591,22.080323025265542],[59.28737218641575,22.080367317936393],[59.287419984726824,22.080624215152284]]],"type":"Polygon"},"id":"b730d9e9ef673364d607e589f869add3","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[59.291471205685696,22.081770841538898],[59.291524681104306,22.081718928962346],[59.29147884503132,22.081617463417672],[59.291466112789635,22.0815915071031],[59.291443194752645,22.081610384423286],[59.29143046250985,22.08157027011589],[59.2914508340983,22.081556112121973],[59.291468659238205,22.081556112121973],[59.29147375213421,22.081534875129435],[59.29147884503132,22.081520717131966],[59.29150176306834,22.081537234795533],[59.29150430951694,22.081549033125484],[59.291550145589866,22.081534875129435],[59.291575610074375,22.081530155797083],[59.29158834231717,22.081513638132705],[59.291601074559935,22.08149948013407],[59.291738582777754,22.081457006127792],[59.29178187240208,22.08150655913404],[59.29179460464485,22.08153251546328],[59.29180224399059,22.081551392790345],[59.29180733688767,22.081567910450318],[59.29180733688767,22.08158678777363],[59.291809883336214,22.08161274408812],[59.291809883336214,22.081626902076366],[59.29180733688767,22.081648139055062],[59.291792058196336,22.081681174349484],[59.29177932595354,22.0817094903108],[59.291761500814744,22.08174252559087],[59.29175131496663,22.081775560846538],[59.29174367562095,22.081810955772696],[59.29172330403361,22.08183219272368],[59.2917054787776,22.081865227930663],[59.29169529288407,22.08188410517033],[59.291471205685696,22.081770841538898]]],"type":"Polygon"},"id":"609d7a4a604596a37963901dd5c284ec","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW8" t="str">
+        <v>erter</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>&lt;p&gt;asddas&lt;/p&gt;</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Project</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Rahul Sen,Adarsh Arya</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>Muscat</v>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>Oman</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2024-10-27 04:21:43.726Z</v>
+      </c>
+      <c r="M9" t="str">
+        <v>ptk9o3bnmqx67t8</v>
+      </c>
+      <c r="N9" t="str">
+        <v>4241x9ggl5r6w8f</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v>2024-11-28</v>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <v>tt7p0slj3bwx606</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v>58.34946908552854,23.59315474609643</v>
+      </c>
+      <c r="W9" t="str">
+        <v>Area</v>
+      </c>
+      <c r="X9" t="str">
+        <v>{"colorIndex":0,"markerTypeIndex":4,"position":{"lat":23.59315474609643,"lng":58.34946908552854},"values":{"color":"#FF5733","image":"/assets/plants.svg"}}</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>Planting Tree _ Test By Mazin v</v>
+      </c>
+      <c r="Z9">
+        <v>144444</v>
+      </c>
+      <c r="AA9">
+        <v>33</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>Adarsh Arya</v>
+      </c>
+      <c r="AC9" t="str">
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <v>fffff_SssDO7zsQI.PNG</v>
+      </c>
+      <c r="AE9" t="str">
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <v>tree</v>
+      </c>
+      <c r="AH9" t="str">
+        <v/>
+      </c>
+      <c r="AI9" t="str">
+        <v>oikjo_QnijvAZ5ii.PNG</v>
+      </c>
+      <c r="AL9" t="str">
+        <v>Become part of the campaign: Take a photo of yourself with a leaf from a tree of your choice and post it with the hashtag</v>
+      </c>
+      <c r="AM9" t="str">
+        <v>2024-10-14</v>
+      </c>
+      <c r="AN9" t="str">
+        <v>active</v>
+      </c>
+      <c r="AO9" t="str">
+        <v/>
+      </c>
+      <c r="AP9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="str">
+        <v>ew8txwsxjomsuiv</v>
+      </c>
+      <c r="AR9" t="str">
+        <v>Tree</v>
+      </c>
+      <c r="AS9" t="str">
+        <v>Tree Unit</v>
+      </c>
+      <c r="AT9" t="str">
+        <v>2024-12-07 11:46:23.954Z</v>
+      </c>
+      <c r="AU9" t="str">
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <v>{"areaInfo":[{"area":180756.23,"areaName":"Area 1","areaType":"University","id":"c3edebfe973cae94eee7f84de1fdaf73"},{"area":210005.54,"areaName":"Area 2","areaType":"Shopping Mall","id":"51d689d136a49605316a9013eb775916"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[58.34044613440136,23.594668868221945],[58.34656157095503,23.59580936425671],[58.34722675879112,23.592879449287082],[58.34336437780945,23.59301709776429],[58.3411756952531,23.59323340222204],[58.338965555025254,23.593548026250474],[58.3389011820085,23.594393574590498],[58.34044613440136,23.594668868221945]]],"type":"Polygon"},"id":"c3edebfe973cae94eee7f84de1fdaf73","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[58.3504454096082,23.595691382368372],[58.35445799429496,23.59687119647873],[58.35722603399796,23.596753215545434],[58.35707583029398,23.595416090882793],[58.35705437262135,23.592958105577154],[58.35370697577062,23.592859785207736],[58.35370697577062,23.594314919160112],[58.351153512788414,23.594452566131082],[58.3504454096082,23.595691382368372]]],"type":"Polygon"},"id":"51d689d136a49605316a9013eb775916","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
+      </c>
+      <c r="AW9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>&lt;p&gt;qweqw&lt;/p&gt;</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Project</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Rahul Sen</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
         <v>Delhi</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
         <v>India</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L10" t="str">
         <v>2024-10-26 10:09:35.469Z</v>
       </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
+      <c r="M10" t="str">
+        <v>e1z3dz3fqgzqw3v</v>
+      </c>
+      <c r="N10" t="str">
+        <v>ewyhldvcm01pjt1</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
         <v>2024-11-14</v>
       </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-      <c r="P7" t="str">
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10" t="str">
         <v>kacq4e74vbmrv2x</v>
       </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="str">
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
         <v>57.447831316006244,23.80176868633444</v>
       </c>
-      <c r="T7" t="str">
+      <c r="W10" t="str">
         <v>Area</v>
       </c>
-      <c r="U7" t="str">
+      <c r="X10" t="str">
         <v>{"colorIndex":0,"markerTypeIndex":0,"position":{"lat":23.80176868633444,"lng":57.447831316006244},"values":{"color":"#FF5733","image":"/assets/tree.svg"}}</v>
       </c>
-      <c r="V7" t="str">
+      <c r="Y10" t="str">
         <v>Project BETA</v>
       </c>
-      <c r="W7">
+      <c r="Z10">
         <v>100</v>
       </c>
-      <c r="X7">
+      <c r="AA10">
         <v>18</v>
       </c>
-      <c r="Y7" t="str">
-        <v>sourav bapari</v>
-      </c>
-      <c r="Z7" t="str">
-        <v/>
-      </c>
-      <c r="AA7" t="str">
+      <c r="AB10" t="str">
+        <v>Sourav Bapari</v>
+      </c>
+      <c r="AC10" t="str">
+        <v/>
+      </c>
+      <c r="AD10" t="str">
         <v>child_8676542_1280_9i6kblpitZ.jpg</v>
       </c>
-      <c r="AB7" t="str">
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <v/>
-      </c>
-      <c r="AD7" t="str">
+      <c r="AE10" t="str">
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="str">
         <v>tree</v>
       </c>
-      <c r="AE7" t="str">
-        <v/>
-      </c>
-      <c r="AF7" t="str">
+      <c r="AH10" t="str">
+        <v/>
+      </c>
+      <c r="AI10" t="str">
         <v>children_82272_1280_Gxrcfbu0zD.jpg</v>
       </c>
-      <c r="AI7" t="str">
-        <v>Sone title</v>
-      </c>
-      <c r="AJ7" t="str">
+      <c r="AL10" t="str">
+        <v>Sone titlev</v>
+      </c>
+      <c r="AM10" t="str">
         <v>2024-10-26</v>
       </c>
-      <c r="AK7" t="str">
+      <c r="AN10" t="str">
         <v>active</v>
       </c>
-      <c r="AL7" t="str">
-        <v/>
-      </c>
-      <c r="AM7" t="b">
+      <c r="AO10" t="str">
+        <v/>
+      </c>
+      <c r="AP10" t="b">
         <v>0</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="AQ10" t="str">
         <v>ew8txwsxjomsuiv</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="AR10" t="str">
         <v>Tree</v>
       </c>
-      <c r="AP7" t="str">
+      <c r="AS10" t="str">
         <v>Tree Unit</v>
       </c>
-      <c r="AQ7" t="str">
-        <v>2024-11-10 07:09:04.101Z</v>
-      </c>
-      <c r="AR7" t="str">
-        <v/>
-      </c>
-      <c r="AS7" t="str">
+      <c r="AT10" t="str">
+        <v>2024-11-18 09:25:54.857Z</v>
+      </c>
+      <c r="AU10" t="str">
+        <v/>
+      </c>
+      <c r="AV10" t="str">
         <v>{"areaInfo":[{"area":144200.16,"areaName":"area 1","areaType":"Parking","id":"1098273febba2e2316c894355175e3c5"},{"area":51583.68,"areaName":"area 2","areaType":"School","id":"69b31ebe6ad06d5ade7dcb2ba50632b9"},{"area":20946.29,"areaName":"area 3","areaType":"School","id":"9c8d69b704a11643ddc4cbc45ada4c1c"}],"workAreaData":{"features":[{"geometry":{"coordinates":[[[57.44206993104322,23.80259325448033],[57.44320718766613,23.804281639592432],[57.443679256452896,23.80388899385038],[57.44419424058276,23.803653405834993],[57.44470922471373,23.80351597929645],[57.44539587022243,23.803339287817806],[57.44554607392638,23.803417817393324],[57.44664041520511,23.80298590413939],[57.44807807923709,23.80247545935147],[57.449000759138045,23.801906114721135],[57.448271198286335,23.80017843298269],[57.44541732789395,23.801317134891818],[57.44327156068181,23.802023910367353],[57.44239179612495,23.802338031565597],[57.44206993104322,23.80259325448033]]],"type":"Polygon"},"id":"1098273febba2e2316c894355175e3c5","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[57.43893711091445,23.80351597929645],[57.44189826966661,23.802180971061418],[57.441426200879846,23.801160073153255],[57.43979541779865,23.801631257800267],[57.438958568585946,23.8017686863339],[57.43831483842257,23.8020042777667],[57.438186092390055,23.802082808149365],[57.43861524583275,23.802868109366628],[57.43893711091445,23.80351597929645]]],"type":"Polygon"},"id":"69b31ebe6ad06d5ade7dcb2ba50632b9","properties":{},"type":"Feature"},{"geometry":{"coordinates":[[[57.443378849042716,23.799903572406222],[57.44423715592808,23.79964834420683],[57.443228645337655,23.79774393335059],[57.44241325379761,23.798077698096236],[57.443378849042716,23.799903572406222]]],"type":"Polygon"},"id":"9c8d69b704a11643ddc4cbc45ada4c1c","properties":{},"type":"Feature"}],"type":"FeatureCollection"}}</v>
       </c>
-      <c r="AT7" t="str">
+      <c r="AW10" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AT7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AW10"/>
   </ignoredErrors>
 </worksheet>
 </file>